--- a/teaching/traditional_assets/database/data/barbados/barbados_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/barbados/barbados_insurance_life.xlsx
@@ -591,118 +591,118 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.135</v>
+        <v>0.101</v>
       </c>
       <c r="G2">
-        <v>0.1264894086496028</v>
+        <v>0.1900797373358349</v>
       </c>
       <c r="H2">
-        <v>0.1264894086496028</v>
+        <v>0.1900797373358349</v>
       </c>
       <c r="I2">
-        <v>0.1390425161574571</v>
+        <v>0.1304500681763358</v>
       </c>
       <c r="J2">
-        <v>0.09076266300508554</v>
+        <v>0.06522503408816788</v>
       </c>
       <c r="K2">
-        <v>44.9</v>
+        <v>-21.2</v>
       </c>
       <c r="L2">
-        <v>0.02476831421006178</v>
+        <v>-0.0124296435272045</v>
       </c>
       <c r="M2">
-        <v>15.573</v>
+        <v>64</v>
       </c>
       <c r="N2">
-        <v>0.01413799364502951</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="O2">
-        <v>0.3468374164810691</v>
+        <v>-3.018867924528302</v>
       </c>
       <c r="P2">
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="Q2">
-        <v>0.01361779391738538</v>
+        <v>0.04415760869565218</v>
       </c>
       <c r="R2">
-        <v>0.334075723830735</v>
+        <v>-1.533018867924528</v>
       </c>
       <c r="S2">
-        <v>0.5730000000000004</v>
+        <v>31.5</v>
       </c>
       <c r="T2">
-        <v>0.03679445193604318</v>
+        <v>0.4921875</v>
       </c>
       <c r="U2">
-        <v>328.8</v>
+        <v>384.2</v>
       </c>
       <c r="V2">
-        <v>0.2985020426690876</v>
+        <v>0.5220108695652174</v>
       </c>
       <c r="W2">
-        <v>0.07641252552756977</v>
+        <v>-0.03193733052124134</v>
       </c>
       <c r="X2">
-        <v>0.2988943397950756</v>
+        <v>0.3485015326537834</v>
       </c>
       <c r="Y2">
-        <v>-0.2224818142675059</v>
+        <v>-0.3804388631750247</v>
       </c>
       <c r="Z2">
-        <v>1.210697549193965</v>
+        <v>0.942973324109291</v>
       </c>
       <c r="AA2">
-        <v>0.1098861336585748</v>
+        <v>0.06150546720926149</v>
       </c>
       <c r="AB2">
-        <v>0.1820242144508306</v>
+        <v>0.1686111665860797</v>
       </c>
       <c r="AC2">
-        <v>-0.07213808079225578</v>
+        <v>-0.1071056993768182</v>
       </c>
       <c r="AD2">
-        <v>1473.3</v>
+        <v>1506.5</v>
       </c>
       <c r="AE2">
-        <v>8.418633548809421</v>
+        <v>0.446818592208664</v>
       </c>
       <c r="AF2">
-        <v>1481.718633548809</v>
+        <v>1506.946818592209</v>
       </c>
       <c r="AG2">
-        <v>1152.918633548809</v>
+        <v>1122.746818592209</v>
       </c>
       <c r="AH2">
-        <v>0.5735939708336779</v>
+        <v>0.6718602537076861</v>
       </c>
       <c r="AI2">
-        <v>0.5426509877440552</v>
+        <v>0.4816454976917132</v>
       </c>
       <c r="AJ2">
-        <v>0.5114039674760558</v>
+        <v>0.6040342920089369</v>
       </c>
       <c r="AK2">
-        <v>0.4800390093344291</v>
+        <v>0.4090827713291158</v>
       </c>
       <c r="AL2">
-        <v>56.4</v>
+        <v>44.5</v>
       </c>
       <c r="AM2">
-        <v>56.4</v>
+        <v>44.5</v>
       </c>
       <c r="AN2">
-        <v>5.281781028178103</v>
+        <v>6.129340683931077</v>
       </c>
       <c r="AO2">
-        <v>4.414893617021277</v>
+        <v>4.991011235955056</v>
       </c>
       <c r="AP2">
-        <v>4.133213714593853</v>
+        <v>4.56800381875301</v>
       </c>
       <c r="AQ2">
-        <v>4.414893617021277</v>
+        <v>4.991011235955056</v>
       </c>
     </row>
     <row r="3">
@@ -722,118 +722,118 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.135</v>
+        <v>0.101</v>
       </c>
       <c r="G3">
-        <v>0.1264894086496028</v>
+        <v>0.1900797373358349</v>
       </c>
       <c r="H3">
-        <v>0.1264894086496028</v>
+        <v>0.1900797373358349</v>
       </c>
       <c r="I3">
-        <v>0.1390425161574571</v>
+        <v>0.1304500681763358</v>
       </c>
       <c r="J3">
-        <v>0.09076266300508554</v>
+        <v>0.06522503408816788</v>
       </c>
       <c r="K3">
-        <v>44.9</v>
+        <v>-21.2</v>
       </c>
       <c r="L3">
-        <v>0.02476831421006178</v>
+        <v>-0.0124296435272045</v>
       </c>
       <c r="M3">
-        <v>15.573</v>
+        <v>64</v>
       </c>
       <c r="N3">
-        <v>0.01413799364502951</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="O3">
-        <v>0.3468374164810691</v>
+        <v>-3.018867924528302</v>
       </c>
       <c r="P3">
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="Q3">
-        <v>0.01361779391738538</v>
+        <v>0.04415760869565218</v>
       </c>
       <c r="R3">
-        <v>0.334075723830735</v>
+        <v>-1.533018867924528</v>
       </c>
       <c r="S3">
-        <v>0.5730000000000004</v>
+        <v>31.5</v>
       </c>
       <c r="T3">
-        <v>0.03679445193604318</v>
+        <v>0.4921875</v>
       </c>
       <c r="U3">
-        <v>328.8</v>
+        <v>384.2</v>
       </c>
       <c r="V3">
-        <v>0.2985020426690876</v>
+        <v>0.5220108695652174</v>
       </c>
       <c r="W3">
-        <v>0.07641252552756977</v>
+        <v>-0.03193733052124134</v>
       </c>
       <c r="X3">
-        <v>0.2988943397950756</v>
+        <v>0.3485015326537834</v>
       </c>
       <c r="Y3">
-        <v>-0.2224818142675059</v>
+        <v>-0.3804388631750247</v>
       </c>
       <c r="Z3">
-        <v>1.210697549193965</v>
+        <v>0.942973324109291</v>
       </c>
       <c r="AA3">
-        <v>0.1098861336585748</v>
+        <v>0.06150546720926149</v>
       </c>
       <c r="AB3">
-        <v>0.1820242144508306</v>
+        <v>0.1686111665860797</v>
       </c>
       <c r="AC3">
-        <v>-0.07213808079225578</v>
+        <v>-0.1071056993768182</v>
       </c>
       <c r="AD3">
-        <v>1473.3</v>
+        <v>1506.5</v>
       </c>
       <c r="AE3">
-        <v>8.418633548809421</v>
+        <v>0.446818592208664</v>
       </c>
       <c r="AF3">
-        <v>1481.718633548809</v>
+        <v>1506.946818592209</v>
       </c>
       <c r="AG3">
-        <v>1152.918633548809</v>
+        <v>1122.746818592209</v>
       </c>
       <c r="AH3">
-        <v>0.5735939708336779</v>
+        <v>0.6718602537076861</v>
       </c>
       <c r="AI3">
-        <v>0.5426509877440552</v>
+        <v>0.4816454976917132</v>
       </c>
       <c r="AJ3">
-        <v>0.5114039674760558</v>
+        <v>0.6040342920089369</v>
       </c>
       <c r="AK3">
-        <v>0.4800390093344291</v>
+        <v>0.4090827713291158</v>
       </c>
       <c r="AL3">
-        <v>56.4</v>
+        <v>44.5</v>
       </c>
       <c r="AM3">
-        <v>56.4</v>
+        <v>44.5</v>
       </c>
       <c r="AN3">
-        <v>5.281781028178103</v>
+        <v>6.129340683931077</v>
       </c>
       <c r="AO3">
-        <v>4.414893617021277</v>
+        <v>4.991011235955056</v>
       </c>
       <c r="AP3">
-        <v>4.133213714593853</v>
+        <v>4.56800381875301</v>
       </c>
       <c r="AQ3">
-        <v>4.414893617021277</v>
+        <v>4.991011235955056</v>
       </c>
     </row>
   </sheetData>
